--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -466,7 +466,11 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
